--- a/problem3/question3/question3/machineProblem3.xlsx
+++ b/problem3/question3/question3/machineProblem3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdani\Documents\ELEC374\CUDAmachineProblems\problem3\question3\question3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D08E7E42-93E1-4E04-BA81-0BE2C69796E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FF8DA0-0659-4CDB-B2C5-9583A30E39EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="machineProblem3" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -46,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,9 +616,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t>Transfer Time vs. Matrix Size</a:t>
+              <a:t>GPU Core vs CPU Core</a:t>
             </a:r>
-            <a:endParaRPr lang="en-CA"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3134,181 +3130,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="machineProblem2"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>100</v>
-          </cell>
-          <cell r="B2">
-            <v>0.08</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>200</v>
-          </cell>
-          <cell r="B3">
-            <v>0.25900000000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>500</v>
-          </cell>
-          <cell r="B4">
-            <v>1.9770000000000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>1000</v>
-          </cell>
-          <cell r="B5">
-            <v>7.8479999999999999</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>1500</v>
-          </cell>
-          <cell r="B6">
-            <v>13.44</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>3000</v>
-          </cell>
-          <cell r="B7">
-            <v>63.893999999999998</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>5000</v>
-          </cell>
-          <cell r="B8">
-            <v>194.58699999999999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>0.14060800000000001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>0.32435199999999997</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>0.69264000000000003</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>1.3631040000000001</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>2.0133760000000001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>7.8999680000000003</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>19.744225</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>7.0975999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>4.5920000000000002E-2</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>0.11264</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>0.27420800000000001</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>0.55036799999999997</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>2.0602879999999999</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>5.6063679999999998</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>0.25907200000000002</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>0.45673599999999998</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>1.2259519999999999</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>2.4322240000000002</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>4.738912</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>30.162336</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>57.52</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3605,7 +3426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
